--- a/biology/Médecine/1285_en_santé_et_médecine/1285_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1285_en_santé_et_médecine/1285_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1285_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1285_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1285 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1285_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1285_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2 octobre : Philippe le Hardi meurt à Perpignan d'une maladie contractée au siège de Gérone, probablement le typhus[1].
-Bernard de Gordon, professeur de médecine à Montpellier, « parle de la petite vérole comme d'une maladie très fréquente et très répandue en France, de son temps[2] ».
-Fondation de l'hôpital Sainte-Avoye à Paris par Jean Séquence, curé de Saint-Merri, et par Constance de Saint-Jacques, « pour y recevoir cinquante pauvres femmes veuves âgées de cinquante ans[3] ».
-Fondation à Gray, en Bourgogne, par Girard d'Arc, d'un hôpital au bord de la Saône[4].
-L'hôpital Saint-Antoine, à Monistrol, est attesté dans le répertoire des hommages de l'évêque du Puy[5].
-Première mention des léproseries de Bayet et de Joze, en Auvergne[6].
-1285, 1288 et 1290 : l'empereur de Chine Kubilai Khan envoie des missions en Inde du Sud pour enquêter sur les médecines ayurvédique et jaïnique[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 octobre : Philippe le Hardi meurt à Perpignan d'une maladie contractée au siège de Gérone, probablement le typhus.
+Bernard de Gordon, professeur de médecine à Montpellier, « parle de la petite vérole comme d'une maladie très fréquente et très répandue en France, de son temps ».
+Fondation de l'hôpital Sainte-Avoye à Paris par Jean Séquence, curé de Saint-Merri, et par Constance de Saint-Jacques, « pour y recevoir cinquante pauvres femmes veuves âgées de cinquante ans ».
+Fondation à Gray, en Bourgogne, par Girard d'Arc, d'un hôpital au bord de la Saône.
+L'hôpital Saint-Antoine, à Monistrol, est attesté dans le répertoire des hommages de l'évêque du Puy.
+Première mention des léproseries de Bayet et de Joze, en Auvergne.
+1285, 1288 et 1290 : l'empereur de Chine Kubilai Khan envoie des missions en Inde du Sud pour enquêter sur les médecines ayurvédique et jaïnique.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1285_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1285_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1271[8]-1285 : fl. Henri du Perche, chirurgien juré de la prévôté de Paris « cité dans l'enquête sur les miracles de Saint Louis[9] » ; en 1271, il a décrit « le cas d’un jeune homme d’une vingtaine d’années atteint d’un œdème unilatéral de la cheville remontant progressivement vers la cuisse » ; en termes actuels et vu l'âge du patient, on peut suspecter qu'il s'agit d'une thrombophilie[8].
-1285-1292 : fl. Foulques de la Charité, médecin du roi de France Philippe le Bel[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1271-1285 : fl. Henri du Perche, chirurgien juré de la prévôté de Paris « cité dans l'enquête sur les miracles de Saint Louis » ; en 1271, il a décrit « le cas d’un jeune homme d’une vingtaine d’années atteint d’un œdème unilatéral de la cheville remontant progressivement vers la cuisse » ; en termes actuels et vu l'âge du patient, on peut suspecter qu'il s'agit d'une thrombophilie.
+1285-1292 : fl. Foulques de la Charité, médecin du roi de France Philippe le Bel.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1285_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1285_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 août : Philippe Benizi (né en 1233), philosophe et médecin italien, qui fut ministre général de l'ordre des servites de Marie et canonisé par l'Église catholique[11],[12].
-Après 1275 et probablement entre 1280 et 1285 : Guillaume de Salicet (né en 1210), moine dominicain et médecin lombard[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 août : Philippe Benizi (né en 1233), philosophe et médecin italien, qui fut ministre général de l'ordre des servites de Marie et canonisé par l'Église catholique,.
+Après 1275 et probablement entre 1280 et 1285 : Guillaume de Salicet (né en 1210), moine dominicain et médecin lombard.
 </t>
         </is>
       </c>
